--- a/Cars/Revision.xlsx
+++ b/Cars/Revision.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lalor\Documents\Git\UsefulStuff\Cars\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D589E76-1792-4BAE-A992-8D7E22470D25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1AE9D8D-C1ED-439C-A859-647071AA6490}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E4145870-4B48-4739-A2CB-B8AA32B192FA}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="March" sheetId="2" r:id="rId1"/>
+    <sheet name="Versa e i10" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="12">
   <si>
     <t>Presión llantas</t>
   </si>
@@ -69,6 +70,9 @@
   </si>
   <si>
     <t>□</t>
+  </si>
+  <si>
+    <t>Nivel aceite</t>
   </si>
 </sst>
 </file>
@@ -106,7 +110,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -129,20 +133,70 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -456,10 +510,1442 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2CF1070-B0B9-44EC-9CF9-3F0AF86E694B}">
+  <dimension ref="A1:X49"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3:I3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.77734375" customWidth="1"/>
+    <col min="2" max="12" width="8.33203125" customWidth="1"/>
+    <col min="13" max="13" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="15" max="23" width="7.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>45403</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>45410</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>45417</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>45424</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>45431</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>45438</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>45445</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>45452</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>45459</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>45466</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>45473</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>45480</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>45487</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>45494</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>45501</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>45508</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>45515</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>45522</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>45529</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>45536</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>45543</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="7"/>
+      <c r="R23" s="7"/>
+      <c r="S23" s="7"/>
+      <c r="T23" s="7"/>
+      <c r="U23" s="7"/>
+      <c r="V23" s="7"/>
+      <c r="W23" s="7"/>
+      <c r="X23" s="7"/>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="7"/>
+      <c r="R24" s="7"/>
+      <c r="S24" s="7"/>
+      <c r="T24" s="7"/>
+      <c r="U24" s="7"/>
+      <c r="V24" s="7"/>
+      <c r="W24" s="7"/>
+      <c r="X24" s="7"/>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
+      <c r="B25" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L25" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M25" s="10"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="8"/>
+      <c r="R25" s="8"/>
+      <c r="S25" s="8"/>
+      <c r="T25" s="8"/>
+      <c r="U25" s="8"/>
+      <c r="V25" s="8"/>
+      <c r="W25" s="8"/>
+      <c r="X25" s="7"/>
+    </row>
+    <row r="26" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="8"/>
+      <c r="Q26" s="8"/>
+      <c r="R26" s="8"/>
+      <c r="S26" s="8"/>
+      <c r="T26" s="8"/>
+      <c r="U26" s="8"/>
+      <c r="V26" s="8"/>
+      <c r="W26" s="8"/>
+      <c r="X26" s="7"/>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <v>45550</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="9"/>
+      <c r="P27" s="7"/>
+      <c r="Q27" s="7"/>
+      <c r="R27" s="7"/>
+      <c r="S27" s="7"/>
+      <c r="T27" s="7"/>
+      <c r="U27" s="7"/>
+      <c r="V27" s="7"/>
+      <c r="W27" s="7"/>
+      <c r="X27" s="7"/>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
+        <v>45557</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="9"/>
+      <c r="O28" s="9"/>
+      <c r="P28" s="7"/>
+      <c r="Q28" s="7"/>
+      <c r="R28" s="7"/>
+      <c r="S28" s="7"/>
+      <c r="T28" s="7"/>
+      <c r="U28" s="7"/>
+      <c r="V28" s="7"/>
+      <c r="W28" s="7"/>
+      <c r="X28" s="7"/>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
+        <v>45564</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="9"/>
+      <c r="O29" s="9"/>
+      <c r="P29" s="7"/>
+      <c r="Q29" s="7"/>
+      <c r="R29" s="7"/>
+      <c r="S29" s="7"/>
+      <c r="T29" s="7"/>
+      <c r="U29" s="7"/>
+      <c r="V29" s="7"/>
+      <c r="W29" s="7"/>
+      <c r="X29" s="7"/>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
+        <v>45571</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="9"/>
+      <c r="O30" s="9"/>
+      <c r="P30" s="7"/>
+      <c r="Q30" s="7"/>
+      <c r="R30" s="7"/>
+      <c r="S30" s="7"/>
+      <c r="T30" s="7"/>
+      <c r="U30" s="7"/>
+      <c r="V30" s="7"/>
+      <c r="W30" s="7"/>
+      <c r="X30" s="7"/>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
+        <v>45578</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="9"/>
+      <c r="O31" s="9"/>
+      <c r="P31" s="7"/>
+      <c r="Q31" s="7"/>
+      <c r="R31" s="7"/>
+      <c r="S31" s="7"/>
+      <c r="T31" s="7"/>
+      <c r="U31" s="7"/>
+      <c r="V31" s="7"/>
+      <c r="W31" s="7"/>
+      <c r="X31" s="7"/>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
+        <v>45585</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="11"/>
+      <c r="N32" s="9"/>
+      <c r="O32" s="9"/>
+      <c r="P32" s="9"/>
+      <c r="Q32" s="9"/>
+      <c r="R32" s="9"/>
+      <c r="S32" s="9"/>
+      <c r="T32" s="9"/>
+      <c r="U32" s="7"/>
+      <c r="V32" s="7"/>
+      <c r="W32" s="7"/>
+      <c r="X32" s="7"/>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
+        <v>45592</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="11"/>
+      <c r="N33" s="9"/>
+      <c r="O33" s="9"/>
+      <c r="P33" s="7"/>
+      <c r="Q33" s="7"/>
+      <c r="R33" s="7"/>
+      <c r="S33" s="7"/>
+      <c r="T33" s="7"/>
+      <c r="U33" s="7"/>
+      <c r="V33" s="7"/>
+      <c r="W33" s="7"/>
+      <c r="X33" s="7"/>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A34" s="2">
+        <v>45599</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="11"/>
+      <c r="N34" s="9"/>
+      <c r="O34" s="9"/>
+      <c r="P34" s="7"/>
+      <c r="Q34" s="7"/>
+      <c r="R34" s="7"/>
+      <c r="S34" s="7"/>
+      <c r="T34" s="7"/>
+      <c r="U34" s="7"/>
+      <c r="V34" s="7"/>
+      <c r="W34" s="7"/>
+      <c r="X34" s="7"/>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A35" s="2">
+        <v>45606</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="11"/>
+      <c r="N35" s="9"/>
+      <c r="O35" s="9"/>
+      <c r="P35" s="7"/>
+      <c r="Q35" s="7"/>
+      <c r="R35" s="7"/>
+      <c r="S35" s="7"/>
+      <c r="T35" s="7"/>
+      <c r="U35" s="7"/>
+      <c r="V35" s="7"/>
+      <c r="W35" s="7"/>
+      <c r="X35" s="7"/>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A36" s="2">
+        <v>45613</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="11"/>
+      <c r="N36" s="9"/>
+      <c r="O36" s="9"/>
+      <c r="P36" s="7"/>
+      <c r="Q36" s="7"/>
+      <c r="R36" s="7"/>
+      <c r="S36" s="7"/>
+      <c r="T36" s="7"/>
+      <c r="U36" s="7"/>
+      <c r="V36" s="7"/>
+      <c r="W36" s="7"/>
+      <c r="X36" s="7"/>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A37" s="2">
+        <v>45620</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="11"/>
+      <c r="N37" s="9"/>
+      <c r="O37" s="9"/>
+      <c r="P37" s="7"/>
+      <c r="Q37" s="7"/>
+      <c r="R37" s="7"/>
+      <c r="S37" s="7"/>
+      <c r="T37" s="7"/>
+      <c r="U37" s="7"/>
+      <c r="V37" s="7"/>
+      <c r="W37" s="7"/>
+      <c r="X37" s="7"/>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A38" s="2">
+        <v>45627</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="11"/>
+      <c r="N38" s="9"/>
+      <c r="O38" s="9"/>
+      <c r="P38" s="7"/>
+      <c r="Q38" s="7"/>
+      <c r="R38" s="7"/>
+      <c r="S38" s="7"/>
+      <c r="T38" s="7"/>
+      <c r="U38" s="7"/>
+      <c r="V38" s="7"/>
+      <c r="W38" s="7"/>
+      <c r="X38" s="7"/>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A39" s="2">
+        <v>45634</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K39" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L39" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M39" s="11"/>
+      <c r="N39" s="9"/>
+      <c r="O39" s="9"/>
+      <c r="P39" s="7"/>
+      <c r="Q39" s="7"/>
+      <c r="R39" s="7"/>
+      <c r="S39" s="7"/>
+      <c r="T39" s="7"/>
+      <c r="U39" s="7"/>
+      <c r="V39" s="7"/>
+      <c r="W39" s="7"/>
+      <c r="X39" s="7"/>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A40" s="2">
+        <v>45641</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+      <c r="M40" s="11"/>
+      <c r="N40" s="9"/>
+      <c r="O40" s="9"/>
+      <c r="P40" s="7"/>
+      <c r="Q40" s="7"/>
+      <c r="R40" s="7"/>
+      <c r="S40" s="7"/>
+      <c r="T40" s="7"/>
+      <c r="U40" s="7"/>
+      <c r="V40" s="7"/>
+      <c r="W40" s="7"/>
+      <c r="X40" s="7"/>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A41" s="2">
+        <v>45648</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="11"/>
+      <c r="N41" s="9"/>
+      <c r="O41" s="9"/>
+      <c r="P41" s="7"/>
+      <c r="Q41" s="7"/>
+      <c r="R41" s="7"/>
+      <c r="S41" s="7"/>
+      <c r="T41" s="7"/>
+      <c r="U41" s="7"/>
+      <c r="V41" s="7"/>
+      <c r="W41" s="7"/>
+      <c r="X41" s="7"/>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A42" s="2">
+        <v>45655</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="11"/>
+      <c r="N42" s="9"/>
+      <c r="O42" s="9"/>
+      <c r="P42" s="7"/>
+      <c r="Q42" s="7"/>
+      <c r="R42" s="7"/>
+      <c r="S42" s="7"/>
+      <c r="T42" s="7"/>
+      <c r="U42" s="7"/>
+      <c r="V42" s="7"/>
+      <c r="W42" s="7"/>
+      <c r="X42" s="7"/>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A43" s="2">
+        <v>45662</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="11"/>
+      <c r="N43" s="9"/>
+      <c r="O43" s="9"/>
+      <c r="P43" s="7"/>
+      <c r="Q43" s="7"/>
+      <c r="R43" s="7"/>
+      <c r="S43" s="7"/>
+      <c r="T43" s="7"/>
+      <c r="U43" s="7"/>
+      <c r="V43" s="7"/>
+      <c r="W43" s="7"/>
+      <c r="X43" s="7"/>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A44" s="2">
+        <v>45669</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="11"/>
+      <c r="N44" s="9"/>
+      <c r="O44" s="9"/>
+      <c r="P44" s="7"/>
+      <c r="Q44" s="7"/>
+      <c r="R44" s="7"/>
+      <c r="S44" s="7"/>
+      <c r="T44" s="7"/>
+      <c r="U44" s="7"/>
+      <c r="V44" s="7"/>
+      <c r="W44" s="7"/>
+      <c r="X44" s="7"/>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A45" s="2">
+        <v>45676</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="11"/>
+      <c r="N45" s="9"/>
+      <c r="O45" s="9"/>
+      <c r="P45" s="9"/>
+      <c r="Q45" s="9"/>
+      <c r="R45" s="9"/>
+      <c r="S45" s="9"/>
+      <c r="T45" s="9"/>
+      <c r="U45" s="7"/>
+      <c r="V45" s="7"/>
+      <c r="W45" s="7"/>
+      <c r="X45" s="7"/>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A46" s="2">
+        <v>45683</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="11"/>
+      <c r="N46" s="9"/>
+      <c r="O46" s="9"/>
+      <c r="P46" s="7"/>
+      <c r="Q46" s="7"/>
+      <c r="R46" s="7"/>
+      <c r="S46" s="7"/>
+      <c r="T46" s="7"/>
+      <c r="U46" s="7"/>
+      <c r="V46" s="7"/>
+      <c r="W46" s="7"/>
+      <c r="X46" s="7"/>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A47" s="2">
+        <v>45690</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="11"/>
+      <c r="N47" s="9"/>
+      <c r="O47" s="9"/>
+      <c r="P47" s="7"/>
+      <c r="Q47" s="7"/>
+      <c r="R47" s="7"/>
+      <c r="S47" s="7"/>
+      <c r="T47" s="7"/>
+      <c r="U47" s="7"/>
+      <c r="V47" s="7"/>
+      <c r="W47" s="7"/>
+      <c r="X47" s="7"/>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="N48" s="7"/>
+      <c r="O48" s="7"/>
+      <c r="P48" s="7"/>
+      <c r="Q48" s="7"/>
+      <c r="R48" s="7"/>
+      <c r="S48" s="7"/>
+      <c r="T48" s="7"/>
+      <c r="U48" s="7"/>
+      <c r="V48" s="7"/>
+      <c r="W48" s="7"/>
+      <c r="X48" s="7"/>
+    </row>
+    <row r="49" spans="14:24" x14ac:dyDescent="0.3">
+      <c r="N49" s="7"/>
+      <c r="O49" s="7"/>
+      <c r="P49" s="7"/>
+      <c r="Q49" s="7"/>
+      <c r="R49" s="7"/>
+      <c r="S49" s="7"/>
+      <c r="T49" s="7"/>
+      <c r="U49" s="7"/>
+      <c r="V49" s="7"/>
+      <c r="W49" s="7"/>
+      <c r="X49" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="32">
+    <mergeCell ref="L25:L26"/>
+    <mergeCell ref="R25:R26"/>
+    <mergeCell ref="S25:S26"/>
+    <mergeCell ref="T25:T26"/>
+    <mergeCell ref="U25:U26"/>
+    <mergeCell ref="V25:V26"/>
+    <mergeCell ref="W25:W26"/>
+    <mergeCell ref="N25:N26"/>
+    <mergeCell ref="O25:O26"/>
+    <mergeCell ref="P25:P26"/>
+    <mergeCell ref="Q25:Q26"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="C1:C2"/>
+  </mergeCells>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB60BE7B-20B4-4A88-978A-4E67540F2A4E}">
   <dimension ref="A1:V47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
@@ -473,127 +1959,127 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L1" s="1"/>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="T1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="U1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="V1" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
       <c r="L2" s="1"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
+      <c r="V2" s="4"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <v>45298</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="4" t="s">
+      <c r="B3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
-      <c r="L3" s="3">
+      <c r="L3" s="2">
         <v>45592</v>
       </c>
-      <c r="M3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" s="4" t="s">
+      <c r="M3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="3" t="s">
         <v>10</v>
       </c>
       <c r="O3" s="1"/>
@@ -606,13 +2092,13 @@
       <c r="V3" s="1"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
+      <c r="A4" s="2">
         <v>45312</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="B4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="1"/>
@@ -623,13 +2109,13 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
-      <c r="L4" s="3">
+      <c r="L4" s="2">
         <v>45606</v>
       </c>
-      <c r="M4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="N4" s="4" t="s">
+      <c r="M4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" s="3" t="s">
         <v>10</v>
       </c>
       <c r="O4" s="1"/>
@@ -642,13 +2128,13 @@
       <c r="V4" s="1"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
         <v>45326</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="4" t="s">
+      <c r="B5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="1"/>
@@ -659,13 +2145,13 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
-      <c r="L5" s="3">
+      <c r="L5" s="2">
         <v>45620</v>
       </c>
-      <c r="M5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="N5" s="4" t="s">
+      <c r="M5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N5" s="3" t="s">
         <v>10</v>
       </c>
       <c r="O5" s="1"/>
@@ -678,13 +2164,13 @@
       <c r="V5" s="1"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
+      <c r="A6" s="2">
         <v>45340</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="4" t="s">
+      <c r="B6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="1"/>
@@ -695,13 +2181,13 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
-      <c r="L6" s="3">
+      <c r="L6" s="2">
         <v>45634</v>
       </c>
-      <c r="M6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="N6" s="4" t="s">
+      <c r="M6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="O6" s="1"/>
@@ -714,13 +2200,13 @@
       <c r="V6" s="1"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
+      <c r="A7" s="2">
         <v>45354</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="4" t="s">
+      <c r="B7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="1"/>
@@ -731,13 +2217,13 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
-      <c r="L7" s="3">
+      <c r="L7" s="2">
         <v>45648</v>
       </c>
-      <c r="M7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="N7" s="4" t="s">
+      <c r="M7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N7" s="3" t="s">
         <v>10</v>
       </c>
       <c r="O7" s="1"/>
@@ -750,13 +2236,13 @@
       <c r="V7" s="1"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
+      <c r="A8" s="2">
         <v>45368</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="4" t="s">
+      <c r="B8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="1"/>
@@ -767,28 +2253,28 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
-      <c r="L8" s="3">
+      <c r="L8" s="2">
         <v>45662</v>
       </c>
-      <c r="M8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="N8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="O8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="P8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="R8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="S8" s="4" t="s">
+      <c r="M8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S8" s="3" t="s">
         <v>10</v>
       </c>
       <c r="T8" s="1"/>
@@ -796,13 +2282,13 @@
       <c r="V8" s="1"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
+      <c r="A9" s="2">
         <v>45382</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="4" t="s">
+      <c r="B9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D9" s="1"/>
@@ -813,13 +2299,13 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
-      <c r="L9" s="3">
+      <c r="L9" s="2">
         <v>45676</v>
       </c>
-      <c r="M9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="N9" s="4" t="s">
+      <c r="M9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N9" s="3" t="s">
         <v>10</v>
       </c>
       <c r="O9" s="1"/>
@@ -832,13 +2318,13 @@
       <c r="V9" s="1"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
+      <c r="A10" s="2">
         <v>45396</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="4" t="s">
+      <c r="B10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="1"/>
@@ -849,13 +2335,13 @@
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
-      <c r="L10" s="3">
+      <c r="L10" s="2">
         <v>45690</v>
       </c>
-      <c r="M10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="N10" s="4" t="s">
+      <c r="M10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N10" s="3" t="s">
         <v>10</v>
       </c>
       <c r="O10" s="1"/>
@@ -868,13 +2354,13 @@
       <c r="V10" s="1"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
+      <c r="A11" s="2">
         <v>45410</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="4" t="s">
+      <c r="B11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D11" s="1"/>
@@ -885,13 +2371,13 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
-      <c r="L11" s="3">
+      <c r="L11" s="2">
         <v>45704</v>
       </c>
-      <c r="M11" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="N11" s="4" t="s">
+      <c r="M11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N11" s="3" t="s">
         <v>10</v>
       </c>
       <c r="O11" s="1"/>
@@ -904,13 +2390,13 @@
       <c r="V11" s="1"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A12" s="3">
+      <c r="A12" s="2">
         <v>45424</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="4" t="s">
+      <c r="B12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D12" s="1"/>
@@ -921,13 +2407,13 @@
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
-      <c r="L12" s="3">
+      <c r="L12" s="2">
         <v>45718</v>
       </c>
-      <c r="M12" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="N12" s="4" t="s">
+      <c r="M12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N12" s="3" t="s">
         <v>10</v>
       </c>
       <c r="O12" s="1"/>
@@ -940,13 +2426,13 @@
       <c r="V12" s="1"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A13" s="3">
+      <c r="A13" s="2">
         <v>45438</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="4" t="s">
+      <c r="B13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="1"/>
@@ -957,13 +2443,13 @@
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
-      <c r="L13" s="3">
+      <c r="L13" s="2">
         <v>45732</v>
       </c>
-      <c r="M13" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="N13" s="4" t="s">
+      <c r="M13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N13" s="3" t="s">
         <v>10</v>
       </c>
       <c r="O13" s="1"/>
@@ -976,13 +2462,13 @@
       <c r="V13" s="1"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A14" s="3">
+      <c r="A14" s="2">
         <v>45452</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="4" t="s">
+      <c r="B14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="1"/>
@@ -993,13 +2479,13 @@
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
-      <c r="L14" s="3">
+      <c r="L14" s="2">
         <v>45746</v>
       </c>
-      <c r="M14" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="N14" s="4" t="s">
+      <c r="M14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N14" s="3" t="s">
         <v>10</v>
       </c>
       <c r="O14" s="1"/>
@@ -1012,13 +2498,13 @@
       <c r="V14" s="1"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A15" s="3">
+      <c r="A15" s="2">
         <v>45466</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="4" t="s">
+      <c r="B15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="1"/>
@@ -1029,13 +2515,13 @@
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
-      <c r="L15" s="3">
+      <c r="L15" s="2">
         <v>45760</v>
       </c>
-      <c r="M15" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="N15" s="4" t="s">
+      <c r="M15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N15" s="3" t="s">
         <v>10</v>
       </c>
       <c r="O15" s="1"/>
@@ -1048,46 +2534,46 @@
       <c r="V15" s="1"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A16" s="3">
+      <c r="A16" s="2">
         <v>45480</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K16" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="L16" s="3">
+      <c r="B16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L16" s="2">
         <v>45774</v>
       </c>
-      <c r="M16" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="N16" s="4" t="s">
+      <c r="M16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N16" s="3" t="s">
         <v>10</v>
       </c>
       <c r="O16" s="1"/>
@@ -1100,13 +2586,13 @@
       <c r="V16" s="1"/>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A17" s="3">
+      <c r="A17" s="2">
         <v>45494</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="4" t="s">
+      <c r="B17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D17" s="1"/>
@@ -1117,13 +2603,13 @@
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
-      <c r="L17" s="3">
+      <c r="L17" s="2">
         <v>45788</v>
       </c>
-      <c r="M17" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="N17" s="4" t="s">
+      <c r="M17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N17" s="3" t="s">
         <v>10</v>
       </c>
       <c r="O17" s="1"/>
@@ -1136,13 +2622,13 @@
       <c r="V17" s="1"/>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A18" s="3">
+      <c r="A18" s="2">
         <v>45508</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="4" t="s">
+      <c r="B18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D18" s="1"/>
@@ -1153,13 +2639,13 @@
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
-      <c r="L18" s="3">
+      <c r="L18" s="2">
         <v>45802</v>
       </c>
-      <c r="M18" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="N18" s="4" t="s">
+      <c r="M18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N18" s="3" t="s">
         <v>10</v>
       </c>
       <c r="O18" s="1"/>
@@ -1172,13 +2658,13 @@
       <c r="V18" s="1"/>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A19" s="3">
+      <c r="A19" s="2">
         <v>45522</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="4" t="s">
+      <c r="B19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D19" s="1"/>
@@ -1189,13 +2675,13 @@
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
-      <c r="L19" s="3">
+      <c r="L19" s="2">
         <v>45816</v>
       </c>
-      <c r="M19" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="N19" s="4" t="s">
+      <c r="M19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N19" s="3" t="s">
         <v>10</v>
       </c>
       <c r="O19" s="1"/>
@@ -1208,13 +2694,13 @@
       <c r="V19" s="1"/>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A20" s="3">
+      <c r="A20" s="2">
         <v>45536</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="4" t="s">
+      <c r="B20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D20" s="1"/>
@@ -1225,13 +2711,13 @@
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
-      <c r="L20" s="3">
+      <c r="L20" s="2">
         <v>45830</v>
       </c>
-      <c r="M20" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="N20" s="4" t="s">
+      <c r="M20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N20" s="3" t="s">
         <v>10</v>
       </c>
       <c r="O20" s="1"/>
@@ -1244,13 +2730,13 @@
       <c r="V20" s="1"/>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A21" s="3">
+      <c r="A21" s="2">
         <v>45550</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" s="4" t="s">
+      <c r="B21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D21" s="1"/>
@@ -1261,28 +2747,28 @@
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
-      <c r="L21" s="3">
+      <c r="L21" s="2">
         <v>45844</v>
       </c>
-      <c r="M21" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="N21" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="O21" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="P21" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q21" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="R21" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="S21" s="4" t="s">
+      <c r="M21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S21" s="3" t="s">
         <v>10</v>
       </c>
       <c r="T21" s="1"/>
@@ -1290,13 +2776,13 @@
       <c r="V21" s="1"/>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A22" s="3">
+      <c r="A22" s="2">
         <v>45564</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" s="4" t="s">
+      <c r="B22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D22" s="1"/>
@@ -1307,13 +2793,13 @@
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
-      <c r="L22" s="3">
+      <c r="L22" s="2">
         <v>45858</v>
       </c>
-      <c r="M22" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="N22" s="4" t="s">
+      <c r="M22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N22" s="3" t="s">
         <v>10</v>
       </c>
       <c r="O22" s="1"/>
@@ -1326,13 +2812,13 @@
       <c r="V22" s="1"/>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A23" s="3">
+      <c r="A23" s="2">
         <v>45578</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23" s="4" t="s">
+      <c r="B23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D23" s="1"/>
@@ -1343,13 +2829,13 @@
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
-      <c r="L23" s="3">
+      <c r="L23" s="2">
         <v>45872</v>
       </c>
-      <c r="M23" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="N23" s="4" t="s">
+      <c r="M23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N23" s="3" t="s">
         <v>10</v>
       </c>
       <c r="O23" s="1"/>
@@ -1363,127 +2849,127 @@
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E25" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="F25" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G25" s="2" t="s">
+      <c r="G25" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H25" s="2" t="s">
+      <c r="H25" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I25" s="2" t="s">
+      <c r="I25" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J25" s="2" t="s">
+      <c r="J25" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K25" s="2" t="s">
+      <c r="K25" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L25" s="1"/>
-      <c r="M25" s="2" t="s">
+      <c r="M25" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="N25" s="2" t="s">
+      <c r="N25" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="O25" s="2" t="s">
+      <c r="O25" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="P25" s="2" t="s">
+      <c r="P25" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="Q25" s="2" t="s">
+      <c r="Q25" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="R25" s="2" t="s">
+      <c r="R25" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="S25" s="2" t="s">
+      <c r="S25" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="T25" s="2" t="s">
+      <c r="T25" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="U25" s="2" t="s">
+      <c r="U25" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="V25" s="2" t="s">
+      <c r="V25" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
       <c r="L26" s="1"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
-      <c r="P26" s="2"/>
-      <c r="Q26" s="2"/>
-      <c r="R26" s="2"/>
-      <c r="S26" s="2"/>
-      <c r="T26" s="2"/>
-      <c r="U26" s="2"/>
-      <c r="V26" s="2"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="4"/>
+      <c r="S26" s="4"/>
+      <c r="T26" s="4"/>
+      <c r="U26" s="4"/>
+      <c r="V26" s="4"/>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A27" s="3">
+      <c r="A27" s="2">
         <v>45298</v>
       </c>
-      <c r="B27" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H27" s="4" t="s">
+      <c r="B27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H27" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
-      <c r="L27" s="3">
+      <c r="L27" s="2">
         <v>45592</v>
       </c>
-      <c r="M27" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="N27" s="4" t="s">
+      <c r="M27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N27" s="3" t="s">
         <v>10</v>
       </c>
       <c r="O27" s="1"/>
@@ -1496,13 +2982,13 @@
       <c r="V27" s="1"/>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A28" s="3">
+      <c r="A28" s="2">
         <v>45312</v>
       </c>
-      <c r="B28" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C28" s="4" t="s">
+      <c r="B28" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D28" s="1"/>
@@ -1513,13 +2999,13 @@
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
-      <c r="L28" s="3">
+      <c r="L28" s="2">
         <v>45606</v>
       </c>
-      <c r="M28" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="N28" s="4" t="s">
+      <c r="M28" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N28" s="3" t="s">
         <v>10</v>
       </c>
       <c r="O28" s="1"/>
@@ -1532,13 +3018,13 @@
       <c r="V28" s="1"/>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A29" s="3">
+      <c r="A29" s="2">
         <v>45326</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" s="4" t="s">
+      <c r="B29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D29" s="1"/>
@@ -1549,13 +3035,13 @@
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
-      <c r="L29" s="3">
+      <c r="L29" s="2">
         <v>45620</v>
       </c>
-      <c r="M29" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="N29" s="4" t="s">
+      <c r="M29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N29" s="3" t="s">
         <v>10</v>
       </c>
       <c r="O29" s="1"/>
@@ -1568,13 +3054,13 @@
       <c r="V29" s="1"/>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A30" s="3">
+      <c r="A30" s="2">
         <v>45340</v>
       </c>
-      <c r="B30" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C30" s="4" t="s">
+      <c r="B30" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D30" s="1"/>
@@ -1585,13 +3071,13 @@
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
-      <c r="L30" s="3">
+      <c r="L30" s="2">
         <v>45634</v>
       </c>
-      <c r="M30" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="N30" s="4" t="s">
+      <c r="M30" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N30" s="3" t="s">
         <v>10</v>
       </c>
       <c r="O30" s="1"/>
@@ -1604,13 +3090,13 @@
       <c r="V30" s="1"/>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A31" s="3">
+      <c r="A31" s="2">
         <v>45354</v>
       </c>
-      <c r="B31" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C31" s="4" t="s">
+      <c r="B31" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D31" s="1"/>
@@ -1621,13 +3107,13 @@
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
-      <c r="L31" s="3">
+      <c r="L31" s="2">
         <v>45648</v>
       </c>
-      <c r="M31" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="N31" s="4" t="s">
+      <c r="M31" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N31" s="3" t="s">
         <v>10</v>
       </c>
       <c r="O31" s="1"/>
@@ -1640,13 +3126,13 @@
       <c r="V31" s="1"/>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A32" s="3">
+      <c r="A32" s="2">
         <v>45368</v>
       </c>
-      <c r="B32" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C32" s="4" t="s">
+      <c r="B32" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D32" s="1"/>
@@ -1657,28 +3143,28 @@
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
-      <c r="L32" s="3">
+      <c r="L32" s="2">
         <v>45662</v>
       </c>
-      <c r="M32" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="N32" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="O32" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="P32" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q32" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="R32" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="S32" s="4" t="s">
+      <c r="M32" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P32" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q32" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R32" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S32" s="3" t="s">
         <v>10</v>
       </c>
       <c r="T32" s="1"/>
@@ -1686,13 +3172,13 @@
       <c r="V32" s="1"/>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A33" s="3">
+      <c r="A33" s="2">
         <v>45382</v>
       </c>
-      <c r="B33" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C33" s="4" t="s">
+      <c r="B33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D33" s="1"/>
@@ -1703,13 +3189,13 @@
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
-      <c r="L33" s="3">
+      <c r="L33" s="2">
         <v>45676</v>
       </c>
-      <c r="M33" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="N33" s="4" t="s">
+      <c r="M33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N33" s="3" t="s">
         <v>10</v>
       </c>
       <c r="O33" s="1"/>
@@ -1722,13 +3208,13 @@
       <c r="V33" s="1"/>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A34" s="3">
+      <c r="A34" s="2">
         <v>45396</v>
       </c>
-      <c r="B34" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C34" s="4" t="s">
+      <c r="B34" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D34" s="1"/>
@@ -1739,13 +3225,13 @@
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
-      <c r="L34" s="3">
+      <c r="L34" s="2">
         <v>45690</v>
       </c>
-      <c r="M34" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="N34" s="4" t="s">
+      <c r="M34" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N34" s="3" t="s">
         <v>10</v>
       </c>
       <c r="O34" s="1"/>
@@ -1758,13 +3244,13 @@
       <c r="V34" s="1"/>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A35" s="3">
+      <c r="A35" s="2">
         <v>45410</v>
       </c>
-      <c r="B35" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C35" s="4" t="s">
+      <c r="B35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D35" s="1"/>
@@ -1775,13 +3261,13 @@
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
-      <c r="L35" s="3">
+      <c r="L35" s="2">
         <v>45704</v>
       </c>
-      <c r="M35" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="N35" s="4" t="s">
+      <c r="M35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N35" s="3" t="s">
         <v>10</v>
       </c>
       <c r="O35" s="1"/>
@@ -1794,13 +3280,13 @@
       <c r="V35" s="1"/>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A36" s="3">
+      <c r="A36" s="2">
         <v>45424</v>
       </c>
-      <c r="B36" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C36" s="4" t="s">
+      <c r="B36" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D36" s="1"/>
@@ -1811,13 +3297,13 @@
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
-      <c r="L36" s="3">
+      <c r="L36" s="2">
         <v>45718</v>
       </c>
-      <c r="M36" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="N36" s="4" t="s">
+      <c r="M36" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N36" s="3" t="s">
         <v>10</v>
       </c>
       <c r="O36" s="1"/>
@@ -1830,13 +3316,13 @@
       <c r="V36" s="1"/>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A37" s="3">
+      <c r="A37" s="2">
         <v>45438</v>
       </c>
-      <c r="B37" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C37" s="4" t="s">
+      <c r="B37" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D37" s="1"/>
@@ -1847,13 +3333,13 @@
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
-      <c r="L37" s="3">
+      <c r="L37" s="2">
         <v>45732</v>
       </c>
-      <c r="M37" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="N37" s="4" t="s">
+      <c r="M37" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N37" s="3" t="s">
         <v>10</v>
       </c>
       <c r="O37" s="1"/>
@@ -1866,13 +3352,13 @@
       <c r="V37" s="1"/>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A38" s="3">
+      <c r="A38" s="2">
         <v>45452</v>
       </c>
-      <c r="B38" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C38" s="4" t="s">
+      <c r="B38" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D38" s="1"/>
@@ -1883,13 +3369,13 @@
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
-      <c r="L38" s="3">
+      <c r="L38" s="2">
         <v>45746</v>
       </c>
-      <c r="M38" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="N38" s="4" t="s">
+      <c r="M38" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N38" s="3" t="s">
         <v>10</v>
       </c>
       <c r="O38" s="1"/>
@@ -1902,13 +3388,13 @@
       <c r="V38" s="1"/>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A39" s="3">
+      <c r="A39" s="2">
         <v>45466</v>
       </c>
-      <c r="B39" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C39" s="4" t="s">
+      <c r="B39" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D39" s="1"/>
@@ -1919,13 +3405,13 @@
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
-      <c r="L39" s="3">
+      <c r="L39" s="2">
         <v>45760</v>
       </c>
-      <c r="M39" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="N39" s="4" t="s">
+      <c r="M39" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N39" s="3" t="s">
         <v>10</v>
       </c>
       <c r="O39" s="1"/>
@@ -1938,46 +3424,46 @@
       <c r="V39" s="1"/>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A40" s="3">
+      <c r="A40" s="2">
         <v>45480</v>
       </c>
-      <c r="B40" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G40" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H40" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I40" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="J40" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K40" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="L40" s="3">
+      <c r="B40" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K40" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L40" s="2">
         <v>45774</v>
       </c>
-      <c r="M40" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="N40" s="4" t="s">
+      <c r="M40" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N40" s="3" t="s">
         <v>10</v>
       </c>
       <c r="O40" s="1"/>
@@ -1990,13 +3476,13 @@
       <c r="V40" s="1"/>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A41" s="3">
+      <c r="A41" s="2">
         <v>45494</v>
       </c>
-      <c r="B41" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C41" s="4" t="s">
+      <c r="B41" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D41" s="1"/>
@@ -2007,13 +3493,13 @@
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
-      <c r="L41" s="3">
+      <c r="L41" s="2">
         <v>45788</v>
       </c>
-      <c r="M41" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="N41" s="4" t="s">
+      <c r="M41" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N41" s="3" t="s">
         <v>10</v>
       </c>
       <c r="O41" s="1"/>
@@ -2026,13 +3512,13 @@
       <c r="V41" s="1"/>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A42" s="3">
+      <c r="A42" s="2">
         <v>45508</v>
       </c>
-      <c r="B42" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C42" s="4" t="s">
+      <c r="B42" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D42" s="1"/>
@@ -2043,13 +3529,13 @@
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
-      <c r="L42" s="3">
+      <c r="L42" s="2">
         <v>45802</v>
       </c>
-      <c r="M42" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="N42" s="4" t="s">
+      <c r="M42" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N42" s="3" t="s">
         <v>10</v>
       </c>
       <c r="O42" s="1"/>
@@ -2062,13 +3548,13 @@
       <c r="V42" s="1"/>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A43" s="3">
+      <c r="A43" s="2">
         <v>45522</v>
       </c>
-      <c r="B43" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C43" s="4" t="s">
+      <c r="B43" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D43" s="1"/>
@@ -2079,13 +3565,13 @@
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
-      <c r="L43" s="3">
+      <c r="L43" s="2">
         <v>45816</v>
       </c>
-      <c r="M43" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="N43" s="4" t="s">
+      <c r="M43" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N43" s="3" t="s">
         <v>10</v>
       </c>
       <c r="O43" s="1"/>
@@ -2098,13 +3584,13 @@
       <c r="V43" s="1"/>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A44" s="3">
+      <c r="A44" s="2">
         <v>45536</v>
       </c>
-      <c r="B44" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C44" s="4" t="s">
+      <c r="B44" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D44" s="1"/>
@@ -2115,13 +3601,13 @@
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
-      <c r="L44" s="3">
+      <c r="L44" s="2">
         <v>45830</v>
       </c>
-      <c r="M44" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="N44" s="4" t="s">
+      <c r="M44" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N44" s="3" t="s">
         <v>10</v>
       </c>
       <c r="O44" s="1"/>
@@ -2134,13 +3620,13 @@
       <c r="V44" s="1"/>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A45" s="3">
+      <c r="A45" s="2">
         <v>45550</v>
       </c>
-      <c r="B45" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C45" s="4" t="s">
+      <c r="B45" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D45" s="1"/>
@@ -2151,28 +3637,28 @@
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
-      <c r="L45" s="3">
+      <c r="L45" s="2">
         <v>45844</v>
       </c>
-      <c r="M45" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="N45" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="O45" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="P45" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q45" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="R45" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="S45" s="4" t="s">
+      <c r="M45" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O45" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P45" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q45" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R45" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S45" s="3" t="s">
         <v>10</v>
       </c>
       <c r="T45" s="1"/>
@@ -2180,13 +3666,13 @@
       <c r="V45" s="1"/>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A46" s="3">
+      <c r="A46" s="2">
         <v>45564</v>
       </c>
-      <c r="B46" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C46" s="4" t="s">
+      <c r="B46" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D46" s="1"/>
@@ -2197,13 +3683,13 @@
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
-      <c r="L46" s="3">
+      <c r="L46" s="2">
         <v>45858</v>
       </c>
-      <c r="M46" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="N46" s="4" t="s">
+      <c r="M46" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N46" s="3" t="s">
         <v>10</v>
       </c>
       <c r="O46" s="1"/>
@@ -2216,13 +3702,13 @@
       <c r="V46" s="1"/>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A47" s="3">
+      <c r="A47" s="2">
         <v>45578</v>
       </c>
-      <c r="B47" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C47" s="4" t="s">
+      <c r="B47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D47" s="1"/>
@@ -2233,13 +3719,13 @@
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
-      <c r="L47" s="3">
+      <c r="L47" s="2">
         <v>45872</v>
       </c>
-      <c r="M47" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="N47" s="4" t="s">
+      <c r="M47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N47" s="3" t="s">
         <v>10</v>
       </c>
       <c r="O47" s="1"/>
@@ -2253,26 +3739,17 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="V25:V26"/>
-    <mergeCell ref="P25:P26"/>
-    <mergeCell ref="Q25:Q26"/>
-    <mergeCell ref="R25:R26"/>
-    <mergeCell ref="S25:S26"/>
-    <mergeCell ref="T25:T26"/>
-    <mergeCell ref="U25:U26"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="M25:M26"/>
-    <mergeCell ref="N25:N26"/>
-    <mergeCell ref="O25:O26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="M1:M2"/>
     <mergeCell ref="T1:T2"/>
     <mergeCell ref="U1:U2"/>
     <mergeCell ref="V1:V2"/>
@@ -2282,17 +3759,26 @@
     <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="R1:R2"/>
     <mergeCell ref="S1:S2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="O25:O26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="M25:M26"/>
+    <mergeCell ref="N25:N26"/>
+    <mergeCell ref="V25:V26"/>
+    <mergeCell ref="P25:P26"/>
+    <mergeCell ref="Q25:Q26"/>
+    <mergeCell ref="R25:R26"/>
+    <mergeCell ref="S25:S26"/>
+    <mergeCell ref="T25:T26"/>
+    <mergeCell ref="U25:U26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
